--- a/testing/data files/Purchase Order/THEATEX.xlsx
+++ b/testing/data files/Purchase Order/THEATEX.xlsx
@@ -454,7 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -475,35 +475,35 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -520,26 +520,26 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,119 +549,116 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="11" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="15" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="17" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="17" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="16" fontId="17" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="18" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="20" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="21" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -679,109 +676,103 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="12" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="19" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="22" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="23" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="19" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="22" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="19" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="24" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="16" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="28" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="16" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -790,31 +781,31 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="20" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="2" fontId="16" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="28" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="28" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="31" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -823,13 +814,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="16" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -852,8 +840,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff333333"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffb2b1a8"/>
@@ -1110,9 +1098,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1192,7 +1180,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1219,10 +1207,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1469,9 +1457,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1749,7 +1737,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1776,10 +1764,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2169,9 +2157,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" t="s" s="21">
         <v>10</v>
       </c>
@@ -2185,21 +2173,21 @@
         <v>11</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -2211,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2221,13 +2209,13 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="30">
+      <c r="A14" t="s" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2235,313 +2223,315 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" t="s" s="38">
+      <c r="A16" t="s" s="37">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="39">
+      <c r="B16" t="s" s="38">
         <v>15</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" t="s" s="42">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" t="s" s="41">
         <v>16</v>
       </c>
-      <c r="H16" t="s" s="39">
+      <c r="H16" t="s" s="38">
         <v>17</v>
       </c>
-      <c r="I16" t="s" s="43">
+      <c r="I16" t="s" s="42">
         <v>18</v>
       </c>
-      <c r="J16" s="44"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="44"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="50">
+      <c r="A18" s="48">
         <v>1</v>
       </c>
-      <c r="B18" t="s" s="51">
+      <c r="B18" t="s" s="49">
         <v>19</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="H18" t="s" s="57">
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" t="s" s="55">
         <v>20</v>
       </c>
-      <c r="I18" t="s" s="58">
+      <c r="I18" t="s" s="56">
         <v>21</v>
       </c>
-      <c r="J18" s="59"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="60">
+      <c r="A19" s="58">
         <v>2</v>
       </c>
       <c r="B19" t="s" s="20">
         <v>22</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="64">
+      <c r="G19" s="62">
         <v>2</v>
       </c>
-      <c r="H19" t="s" s="65">
+      <c r="H19" t="s" s="63">
         <v>20</v>
       </c>
-      <c r="I19" t="s" s="66">
+      <c r="I19" t="s" s="64">
         <v>21</v>
       </c>
-      <c r="J19" s="59"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="60">
+      <c r="A20" s="58">
         <v>3</v>
       </c>
       <c r="B20" t="s" s="20">
         <v>22</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="64">
+      <c r="G20" s="62">
         <v>3</v>
       </c>
-      <c r="H20" t="s" s="65">
+      <c r="H20" t="s" s="63">
         <v>20</v>
       </c>
-      <c r="I20" t="s" s="66">
+      <c r="I20" t="s" s="64">
         <v>23</v>
       </c>
-      <c r="J20" s="59"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="60">
+      <c r="A21" s="58">
         <v>4</v>
       </c>
       <c r="B21" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="67"/>
-      <c r="H21" t="s" s="65">
+      <c r="G21" s="65"/>
+      <c r="H21" t="s" s="63">
         <v>20</v>
       </c>
-      <c r="I21" t="s" s="66">
+      <c r="I21" t="s" s="64">
         <v>21</v>
       </c>
-      <c r="J21" s="59"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="60">
+      <c r="A22" s="58">
         <v>5</v>
       </c>
       <c r="B22" t="s" s="20">
         <v>25</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="64">
+      <c r="G22" s="62">
         <v>4</v>
       </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="59"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="57"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="60">
+      <c r="A23" s="58">
         <v>6</v>
       </c>
       <c r="B23" t="s" s="20">
         <v>26</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="64">
+      <c r="G23" s="62">
         <v>6</v>
       </c>
-      <c r="H23" t="s" s="65">
+      <c r="H23" t="s" s="63">
         <v>20</v>
       </c>
-      <c r="I23" t="s" s="66">
+      <c r="I23" t="s" s="64">
         <v>23</v>
       </c>
-      <c r="J23" s="59"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="31"/>
+      <c r="A24" s="30"/>
       <c r="B24" t="s" s="20">
         <v>27</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="67"/>
-      <c r="H24" t="s" s="65">
+      <c r="G24" s="65"/>
+      <c r="H24" t="s" s="63">
         <v>20</v>
       </c>
-      <c r="I24" t="s" s="66">
+      <c r="I24" t="s" s="64">
         <v>23</v>
       </c>
-      <c r="J24" s="59"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="60">
+      <c r="A25" s="58">
         <v>7</v>
       </c>
       <c r="B25" t="s" s="20">
         <v>28</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="67"/>
-      <c r="H25" t="s" s="65">
+      <c r="G25" s="65"/>
+      <c r="H25" t="s" s="63">
         <v>20</v>
       </c>
-      <c r="I25" t="s" s="66">
+      <c r="I25" t="s" s="64">
         <v>23</v>
       </c>
-      <c r="J25" s="59"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="60">
+      <c r="A26" s="58">
         <v>8</v>
       </c>
       <c r="B26" t="s" s="20">
         <v>29</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="64">
+      <c r="G26" s="62">
         <v>3</v>
       </c>
-      <c r="H26" t="s" s="65">
+      <c r="H26" t="s" s="63">
         <v>30</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="59"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="60">
+      <c r="A27" s="58">
         <v>9</v>
       </c>
       <c r="B27" t="s" s="20">
         <v>31</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="67"/>
-      <c r="H27" t="s" s="65">
+      <c r="G27" s="65"/>
+      <c r="H27" t="s" s="63">
         <v>20</v>
       </c>
-      <c r="I27" t="s" s="66">
+      <c r="I27" t="s" s="64">
         <v>32</v>
       </c>
-      <c r="J27" s="59"/>
+      <c r="J27" s="57"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="60">
+      <c r="A28" s="58">
         <v>10</v>
       </c>
       <c r="B28" t="s" s="20">
         <v>31</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="67"/>
-      <c r="H28" t="s" s="65">
+      <c r="G28" s="62">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s" s="63">
         <v>20</v>
       </c>
-      <c r="I28" t="s" s="66">
+      <c r="I28" t="s" s="64">
         <v>33</v>
       </c>
-      <c r="J28" s="59"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="60">
+      <c r="A29" s="58">
         <v>11</v>
       </c>
       <c r="B29" t="s" s="20">
         <v>34</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="64">
+      <c r="G29" s="62">
         <v>2</v>
       </c>
-      <c r="H29" t="s" s="65">
+      <c r="H29" t="s" s="63">
         <v>20</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="59"/>
+      <c r="J29" s="57"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="59"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" t="s" s="20">
         <v>35</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -2549,13 +2539,13 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" t="s" s="70">
+      <c r="A32" s="30"/>
+      <c r="B32" t="s" s="67">
         <v>36</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2563,13 +2553,13 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" t="s" s="71">
+      <c r="A33" s="30"/>
+      <c r="B33" t="s" s="68">
         <v>37</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="72"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="69"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2577,13 +2567,13 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" t="s" s="71">
+      <c r="A34" s="30"/>
+      <c r="B34" t="s" s="68">
         <v>38</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="72"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2591,13 +2581,13 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" t="s" s="71">
+      <c r="A35" s="30"/>
+      <c r="B35" t="s" s="68">
         <v>39</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="72"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="69"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2606,10 +2596,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2617,13 +2607,13 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" t="s" s="75">
+      <c r="A37" t="s" s="72">
         <v>40</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="74"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="71"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -2631,11 +2621,11 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="74"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="71"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2643,9 +2633,9 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="33"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="79"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2655,9 +2645,9 @@
       <c r="J39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="73"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2667,11 +2657,11 @@
       <c r="J40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="80"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="74"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="71"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -2679,11 +2669,11 @@
       <c r="J41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="68"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="74"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="71"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2691,11 +2681,11 @@
       <c r="J42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="74"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="71"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2703,11 +2693,11 @@
       <c r="J43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="74"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="71"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -2715,9 +2705,9 @@
       <c r="J44" s="4"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="85"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="23"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2727,9 +2717,9 @@
       <c r="J45" s="4"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="86"/>
+      <c r="A46" s="83"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="23"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2739,9 +2729,9 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="87"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="23"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2753,7 +2743,7 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="23"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2765,7 +2755,7 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="23"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2777,7 +2767,7 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="23"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2789,9 +2779,9 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="74"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="71"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2801,9 +2791,9 @@
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="74"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="71"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -2813,9 +2803,9 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="74"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="71"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -2825,9 +2815,9 @@
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="74"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="71"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2837,9 +2827,9 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="74"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2864,15 +2854,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="90" customWidth="1"/>
-    <col min="2" max="2" width="32" style="90" customWidth="1"/>
-    <col min="3" max="3" width="9.17188" style="90" customWidth="1"/>
-    <col min="4" max="6" width="8.85156" style="90" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="90" customWidth="1"/>
-    <col min="8" max="8" width="5.85156" style="90" customWidth="1"/>
-    <col min="9" max="9" width="16.6719" style="90" customWidth="1"/>
-    <col min="10" max="10" width="19.1719" style="90" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="90" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="87" customWidth="1"/>
+    <col min="2" max="2" width="32" style="87" customWidth="1"/>
+    <col min="3" max="3" width="9.17188" style="87" customWidth="1"/>
+    <col min="4" max="6" width="8.85156" style="87" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="87" customWidth="1"/>
+    <col min="8" max="8" width="5.85156" style="87" customWidth="1"/>
+    <col min="9" max="9" width="16.6719" style="87" customWidth="1"/>
+    <col min="10" max="10" width="19.1719" style="87" customWidth="1"/>
+    <col min="11" max="16384" width="8.85156" style="87" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -3008,9 +2998,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" t="s" s="21">
         <v>10</v>
       </c>
@@ -3026,21 +3016,21 @@
         <v>11</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -3052,7 +3042,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -3062,13 +3052,13 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="30">
+      <c r="A14" t="s" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -3076,149 +3066,149 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" t="s" s="38">
+      <c r="A16" t="s" s="37">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="39">
+      <c r="B16" t="s" s="38">
         <v>15</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" t="s" s="42">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" t="s" s="41">
         <v>16</v>
       </c>
-      <c r="H16" t="s" s="39">
+      <c r="H16" t="s" s="38">
         <v>17</v>
       </c>
-      <c r="I16" t="s" s="43">
+      <c r="I16" t="s" s="42">
         <v>18</v>
       </c>
-      <c r="J16" s="44"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="31"/>
+      <c r="A18" s="30"/>
       <c r="B18" t="s" s="20">
         <v>22</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="64">
+      <c r="G18" s="62">
         <v>15000</v>
       </c>
-      <c r="H18" t="s" s="65">
+      <c r="H18" t="s" s="63">
         <v>20</v>
       </c>
-      <c r="I18" t="s" s="66">
+      <c r="I18" t="s" s="64">
         <v>44</v>
       </c>
-      <c r="J18" s="59"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="31"/>
+      <c r="A19" s="30"/>
       <c r="B19" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="64">
+      <c r="G19" s="62">
         <v>12000</v>
       </c>
-      <c r="H19" t="s" s="65">
+      <c r="H19" t="s" s="63">
         <v>20</v>
       </c>
-      <c r="I19" t="s" s="66">
+      <c r="I19" t="s" s="64">
         <v>21</v>
       </c>
-      <c r="J19" s="59"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="31"/>
+      <c r="A20" s="30"/>
       <c r="B20" t="s" s="20">
         <v>28</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="64">
+      <c r="G20" s="62">
         <v>10000</v>
       </c>
-      <c r="H20" t="s" s="65">
+      <c r="H20" t="s" s="63">
         <v>20</v>
       </c>
-      <c r="I20" t="s" s="66">
+      <c r="I20" t="s" s="64">
         <v>23</v>
       </c>
-      <c r="J20" s="59"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="31"/>
+      <c r="A21" s="30"/>
       <c r="B21" t="s" s="20">
         <v>29</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="64">
+      <c r="G21" s="62">
         <v>7000</v>
       </c>
-      <c r="H21" t="s" s="65">
+      <c r="H21" t="s" s="63">
         <v>30</v>
       </c>
-      <c r="I21" t="s" s="66">
+      <c r="I21" t="s" s="64">
         <v>23</v>
       </c>
-      <c r="J21" s="59"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="59"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="57"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" t="s" s="20">
         <v>35</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3228,67 +3218,67 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" t="s" s="70">
+      <c r="A24" s="30"/>
+      <c r="B24" t="s" s="67">
         <v>36</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="59"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" t="s" s="71">
+      <c r="A25" s="30"/>
+      <c r="B25" t="s" s="68">
         <v>37</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="59"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" t="s" s="71">
+      <c r="A26" s="30"/>
+      <c r="B26" t="s" s="68">
         <v>38</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="59"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" t="s" s="71">
+      <c r="A27" s="30"/>
+      <c r="B27" t="s" s="68">
         <v>39</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3296,13 +3286,13 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" t="s" s="75">
+      <c r="A29" t="s" s="72">
         <v>40</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3310,13 +3300,13 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" t="s" s="93">
+      <c r="A30" t="s" s="89">
         <v>45</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="72"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3326,9 +3316,9 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="72"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="69"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -3338,9 +3328,9 @@
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="72"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -3350,9 +3340,9 @@
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3362,9 +3352,9 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="74"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -3372,11 +3362,11 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="74"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="71"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3384,9 +3374,9 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="33"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="79"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3396,9 +3386,9 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="73"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3408,11 +3398,11 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="80"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="74"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="71"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -3420,11 +3410,11 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="68"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="74"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="71"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3432,11 +3422,11 @@
       <c r="J39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="82"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="74"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="71"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3444,11 +3434,11 @@
       <c r="J40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="83"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="74"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="71"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -3456,9 +3446,9 @@
       <c r="J41" s="4"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="85"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="23"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3468,9 +3458,9 @@
       <c r="J42" s="4"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="86"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="23"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -3480,9 +3470,9 @@
       <c r="J43" s="4"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="87"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3494,7 +3484,7 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="23"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -3506,7 +3496,7 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="23"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3518,7 +3508,7 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="23"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3530,9 +3520,9 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="74"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="71"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -3542,9 +3532,9 @@
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="74"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="71"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3554,9 +3544,9 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="74"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3566,9 +3556,9 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="74"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="71"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -3578,9 +3568,9 @@
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="74"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="71"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -3605,8 +3595,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="94" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="94" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="90" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="90" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
